--- a/biology/Histoire de la zoologie et de la botanique/Joseph_Marie/Joseph_Marie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_Marie/Joseph_Marie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Philippe Marie, né le 26 mai 1821 à Dampierre-en-Yvelines[1] et mort le 19 décembre 1884 à Yzeure[2], est un architecte paysagiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Philippe Marie, né le 26 mai 1821 à Dampierre-en-Yvelines et mort le 19 décembre 1884 à Yzeure, est un architecte paysagiste français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1845, Joseph Marie s'installe à Moulins.
 En 1860, l'empereur Napoléon III confie à Joseph Marie l'aménagement des parcs d'Allier à Vichy. C'est le départ des grands travaux d'embellissement de la station thermale. Dès 1863, les projets se succèdent et aboutissent vers 1870 à l'aspect général qui existe de nos jours. Il poursuit dans d'autres stations thermales naissantes comme le parc Fenestre de La Bourboule ; il crée aussi des parcs privés, comme celui du château de la Place à Jassans-Riottier. 
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Biographie extraite en totalité de la documentation éditée par le Comité des Parcs et Jardins d'Auvergne pour l'exposition : « Les Treyve, une dynastie bourbonnaise de paysagistes ». Cette exposition fut présentée en juillet, août et septembre 2007 au château du Riau à Villeneuve-sur-Allier, puis à l'office de tourisme de Riom jusqu'au 25 avril 2008.
 </t>
